--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498C962A-E2D9-4119-91BD-968375D45169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03534585-166F-4DFB-9974-D48C64E2FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
-    <t>Freyr - Super Eco - Mirez</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -434,6 +431,9 @@
   </si>
   <si>
     <t>Add a few dwarves to gold</t>
+  </si>
+  <si>
+    <t>Super Eco - By Mirez</t>
   </si>
 </sst>
 </file>
@@ -878,14 +878,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -893,7 +893,7 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -901,7 +901,7 @@
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -909,111 +909,111 @@
     </row>
     <row r="4" spans="1:4" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="144" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1029,21 +1029,21 @@
     </row>
     <row r="15" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="17" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>

--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03534585-166F-4DFB-9974-D48C64E2FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAC962-B78E-4D21-A395-6A6A38E13B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Archaic</t>
   </si>
@@ -434,13 +434,16 @@
   </si>
   <si>
     <t>Super Eco - By Mirez</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FSVtc3pDO8w&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +483,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -563,10 +574,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -595,8 +607,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -875,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,6 +1081,11 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -1074,6 +1093,9 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A16:D16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" tooltip="https://www.youtube.com/watch?v=FSVtc3pDO8w&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{EEA3F861-5A9F-41CE-9038-03C6C97C2F1F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAC962-B78E-4D21-A395-6A6A38E13B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE74A10-EEB5-42EC-A47C-FBC94066446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,10 +433,10 @@
     <t>Add a few dwarves to gold</t>
   </si>
   <si>
-    <t>Super Eco - By Mirez</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=FSVtc3pDO8w&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>OUTDATED - Super Eco - By Mirez</t>
   </si>
 </sst>
 </file>
@@ -589,6 +589,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -607,7 +608,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -891,27 +891,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1026,12 +1026,12 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1056,12 +1056,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1082,8 +1082,8 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>32</v>
+      <c r="A19" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE74A10-EEB5-42EC-A47C-FBC94066446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F25DCF-93E9-4122-8DB0-C463B935A660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Early Eco ups - Husksuppe" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Archaic</t>
   </si>
@@ -104,6 +104,94 @@
   </si>
   <si>
     <r>
+      <t>3 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 gather to wood</t>
+  </si>
+  <si>
+    <r>
+      <t>3 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Berserker builds a House</t>
+  </si>
+  <si>
+    <t>Research Handaxe</t>
+  </si>
+  <si>
+    <t>Berserker builds a Temple</t>
+  </si>
+  <si>
+    <t>Start training Hersir</t>
+  </si>
+  <si>
+    <t>Add a few dwarves to gold</t>
+  </si>
+  <si>
+    <t>after gathering 10 wood the gatherer goes to food</t>
+  </si>
+  <si>
+    <r>
       <t>3</t>
     </r>
     <r>
@@ -123,6 +211,42 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 gather makes an ox cart and goes to wood</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -132,45 +256,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1 / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>1 gather to food</t>
-  </si>
-  <si>
-    <t>Once you have 50 wood make an Ox Cart with your wood gatherer</t>
-  </si>
-  <si>
-    <r>
-      <t>3 /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>1 gather to wood</t>
-  </si>
-  <si>
-    <r>
-      <t>3 /</t>
+      <t>2 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 gathers to food</t>
+  </si>
+  <si>
+    <r>
+      <t>5 /</t>
     </r>
     <r>
       <rPr>
@@ -199,7 +293,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -213,16 +307,16 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -241,18 +335,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2 / 2 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>3 gathers to food</t>
-  </si>
-  <si>
-    <t>Berserker builds a House</t>
-  </si>
-  <si>
-    <r>
-      <t>6 /</t>
+      <t>2 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -271,17 +359,63 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 gathers to wood</t>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -294,20 +428,11 @@
     </r>
   </si>
   <si>
-    <t>Research Handaxe</t>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
+    <t>Advance (3.36)</t>
+  </si>
+  <si>
+    <r>
+      <t>7 /</t>
     </r>
     <r>
       <rPr>
@@ -326,124 +451,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2 / 3 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>4 gathers to food</t>
-  </si>
-  <si>
-    <t>Berserker builds a Temple</t>
-  </si>
-  <si>
-    <t>Pre-queue Husbandry</t>
-  </si>
-  <si>
-    <r>
-      <t>10 /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Advance (3.15)</t>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 4 / 0</t>
-    </r>
-  </si>
-  <si>
-    <t>Move 3 gatherers from food to wood</t>
-  </si>
-  <si>
-    <t>Start training Hersir</t>
-  </si>
-  <si>
-    <t>Classical (4.30)</t>
-  </si>
-  <si>
-    <t>7 / 5 / 4 / 0</t>
-  </si>
-  <si>
-    <t>Add a few dwarves to gold</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FSVtc3pDO8w&amp;t=&amp;ab_channel=DeitiesofDeath</t>
-  </si>
-  <si>
-    <t>OUTDATED - Super Eco - By Mirez</t>
+      <t>4 / 4 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Classical (4.36)</t>
+  </si>
+  <si>
+    <t>Early Eco ups - by Husksuppe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,14 +505,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -574,11 +588,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -589,7 +602,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -609,8 +621,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -888,30 +899,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614A540-6DA7-472B-AE29-D78101EAC3A5}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -921,7 +932,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="129.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -935,41 +946,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="144" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -977,125 +988,123 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
+    <row r="19" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" tooltip="https://www.youtube.com/watch?v=FSVtc3pDO8w&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{EEA3F861-5A9F-41CE-9038-03C6C97C2F1F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F25DCF-93E9-4122-8DB0-C463B935A660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C280424-4411-4104-81F0-E9D7DA962B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Archaic</t>
   </si>
@@ -459,13 +459,16 @@
   </si>
   <si>
     <t>Early Eco ups - by Husksuppe</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wI9wAv6wNrA?si=N-RS8uiddKCEMQgN&amp;t=17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +508,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -588,10 +599,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,8 +632,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614A540-6DA7-472B-AE29-D78101EAC3A5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1112,11 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -1105,6 +1124,9 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A17:D17"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" tooltip="https://youtu.be/wI9wAv6wNrA?si=N-RS8uiddKCEMQgN&amp;t=17" xr:uid="{E791C130-4D83-4BDC-90D1-DF36AD169980}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C280424-4411-4104-81F0-E9D7DA962B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADF6B76-4F91-487D-AA6C-045B623B1A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Early Eco ups - Husksuppe" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Archaic</t>
   </si>
@@ -462,13 +464,172 @@
   </si>
   <si>
     <t>https://youtu.be/wI9wAv6wNrA?si=N-RS8uiddKCEMQgN&amp;t=17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 3 vills on food, one build oxcard</t>
+  </si>
+  <si>
+    <t>research pickaxe</t>
+  </si>
+  <si>
+    <t>3 / 0 / 1 / 0</t>
+  </si>
+  <si>
+    <t>1dwarf with starting oxcard</t>
+  </si>
+  <si>
+    <t>3 / 2 / 1 / 0</t>
+  </si>
+  <si>
+    <t>1 wood he build oxcard after 10 wood + 1 wood again</t>
+  </si>
+  <si>
+    <t>3 / 2 / 2 / 0</t>
+  </si>
+  <si>
+    <t>1 dwarf</t>
+  </si>
+  <si>
+    <t>pre queue handaxe</t>
+  </si>
+  <si>
+    <t>5/ 2 / 2 / 0</t>
+  </si>
+  <si>
+    <t>2 to Food</t>
+  </si>
+  <si>
+    <t>build house before 13 pop</t>
+  </si>
+  <si>
+    <t>5 / 2 / 3 / 0</t>
+  </si>
+  <si>
+    <t>8 / 2 / 3 / 0</t>
+  </si>
+  <si>
+    <t>3 to Food</t>
+  </si>
+  <si>
+    <t>After 3 dwarfs, at 150g build temple</t>
+  </si>
+  <si>
+    <t>8 / 3 / 3 / 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 wood </t>
+  </si>
+  <si>
+    <t>8 / 3 / 4 / 0</t>
+  </si>
+  <si>
+    <t>Advance – depends of matchup (3.36)</t>
+  </si>
+  <si>
+    <t>6 / 5 / 4 / 3</t>
+  </si>
+  <si>
+    <t>Move 2 food to wood</t>
+  </si>
+  <si>
+    <t>Build 2 house and train 3 hersir</t>
+  </si>
+  <si>
+    <t>6 / 5 / 6 / 3</t>
+  </si>
+  <si>
+    <t>2 dwarf</t>
+  </si>
+  <si>
+    <t>depending of gameplay open with 3 building (military, eventually armory)</t>
+  </si>
+  <si>
+    <t>vill to food</t>
+  </si>
+  <si>
+    <t>1 TC  - By Léonce</t>
+  </si>
+  <si>
+    <t>2 TC freyr - By Léonce</t>
+  </si>
+  <si>
+    <t>6 / 2 / 3 / 0</t>
+  </si>
+  <si>
+    <t>1 Food</t>
+  </si>
+  <si>
+    <t>6 / 2 / 4 / 0</t>
+  </si>
+  <si>
+    <t>After 4 dwarfs, at 150g build temple</t>
+  </si>
+  <si>
+    <t>7 / 2 / 4 / 0</t>
+  </si>
+  <si>
+    <t>1 food</t>
+  </si>
+  <si>
+    <t>7 / 3 / 4 / 0</t>
+  </si>
+  <si>
+    <t>1 wood</t>
+  </si>
+  <si>
+    <t>7 / 3 / 5 / 0</t>
+  </si>
+  <si>
+    <t>4 / 6 / 5 / 2</t>
+  </si>
+  <si>
+    <t>Move 3 food to wood</t>
+  </si>
+  <si>
+    <t>Build 2 house and train 2 hersir</t>
+  </si>
+  <si>
+    <t>4 / 6 / 5 / 3</t>
+  </si>
+  <si>
+    <t>instant TC then train a third hersir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,8 +678,107 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +795,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,11 +871,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -614,6 +888,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -632,11 +919,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{2890167A-D2D9-433A-BA39-86C2C5914AB9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{20EA1DEE-5D90-40CA-8F2B-7E4F35D1CA63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -916,29 +1226,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614A540-6DA7-472B-AE29-D78101EAC3A5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,7 +1256,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="129.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -960,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="101.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,7 +1282,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -982,7 +1292,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1302,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1312,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1336,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1348,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1358,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1058,15 +1368,15 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1384,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1086,15 +1396,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1102,7 +1412,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1112,8 +1422,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1129,4 +1439,543 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F1ACA4-6A50-4650-A56C-926CA2276A88}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF3DC88-0B77-440F-AB3C-E3CAC8D10FE4}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADF6B76-4F91-487D-AA6C-045B623B1A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191343AB-3230-4AD0-B51C-3026637A5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Early Eco ups - Husksuppe" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil5" sheetId="7" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
   <si>
     <t>Archaic</t>
   </si>
@@ -623,13 +625,385 @@
   </si>
   <si>
     <t>instant TC then train a third hersir</t>
+  </si>
+  <si>
+    <t>7 / 3 / 5 / 3</t>
+  </si>
+  <si>
+    <t>vill to food + swap 3 wood to food</t>
+  </si>
+  <si>
+    <t>12 / 3 / 5 / 3</t>
+  </si>
+  <si>
+    <t>1 TC to food + 1 TC dwarf</t>
+  </si>
+  <si>
+    <t>once wood for armory + oxcard swap all 3 wood to chicken</t>
+  </si>
+  <si>
+    <t>15 / 0 / 5 / 3</t>
+  </si>
+  <si>
+    <t>keep going that way untill heroic age</t>
+  </si>
+  <si>
+    <t>build hillfort if needed</t>
+  </si>
+  <si>
+    <t>18 / 0 / 8 / 3</t>
+  </si>
+  <si>
+    <t>at this moment you should be able to age up</t>
+  </si>
+  <si>
+    <t>Age up with food TC</t>
+  </si>
+  <si>
+    <t>Advance – depends of matchup (7.36)</t>
+  </si>
+  <si>
+    <t>10 / 10 / 8 / 3</t>
+  </si>
+  <si>
+    <t>spam military building</t>
+  </si>
+  <si>
+    <t>pre queue eco + military tech</t>
+  </si>
+  <si>
+    <t>Heroic (8.36)</t>
+  </si>
+  <si>
+    <t>And now you can go for your strategy</t>
+  </si>
+  <si>
+    <t>2 TC FH - By Léonce</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial vills: 
+2 Vills + Ox Cart on Wood
+1 Vill build Ox Cart (Ox Cart to Gold), then builds a dock, then back to Wood</t>
+  </si>
+  <si>
+    <t>Auto-Queue Fishing Ships</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Dwarf to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ 3 / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Build a House, Force Drop Wood for a new Fishing Ships for no idle time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 2 / 0 </t>
+    </r>
+  </si>
+  <si>
+    <t>Aim for 7 Fishing Ships, then Temple before 3.06,
+one extra boat after temple (stop auto-queue Fishing Ships)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 5 / 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance (3.36) - Freya</t>
+  </si>
+  <si>
+    <t>Make a 2nd Dock</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 3 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition:
+4 Food to Wood</t>
+  </si>
+  <si>
+    <t>Pre-queue Hand Axe + Pickaxe</t>
+  </si>
+  <si>
+    <t>Build 1 more Fishing Ship (9 in total)</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Spam War Boats</t>
+  </si>
+  <si>
+    <t>Send Valkery to enemy Woodline and cast Forest Fire
+(Goal = villager idle time)</t>
+  </si>
+  <si>
+    <t>Focus: Fight the water defensively. 
+If needed, you can skip 1 War Boat to build a Longhouse/ Great Hall</t>
+  </si>
+  <si>
+    <t>Standard Water - Léonce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,8 +1151,194 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,8 +1369,62 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -870,14 +1484,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="5"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -901,6 +1553,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -932,21 +1585,91 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="27">
+    <cellStyle name="Accent" xfId="8" xr:uid="{71F600FC-EF8F-4AF1-BCF2-D23C0742A416}"/>
+    <cellStyle name="Accent 1" xfId="9" xr:uid="{5C80D55F-672C-4234-8474-BC8A5C63E78B}"/>
+    <cellStyle name="Accent 2" xfId="10" xr:uid="{BF727C94-77B8-40BD-9D6D-1FD2062E449E}"/>
+    <cellStyle name="Accent 3" xfId="11" xr:uid="{E9315713-B73F-42E9-9BB2-55A5FA4D5107}"/>
+    <cellStyle name="Bad" xfId="12" xr:uid="{6762A621-8D08-4B30-B42C-8F17A392B396}"/>
+    <cellStyle name="Default" xfId="13" xr:uid="{F7D19F62-0A0A-4FAE-8CA3-A37EB7085F64}"/>
+    <cellStyle name="Error" xfId="14" xr:uid="{77345266-6804-4973-83F0-F2E139F7524B}"/>
+    <cellStyle name="Footnote" xfId="15" xr:uid="{D9559730-980A-48D1-BB4B-05489FE1DFAA}"/>
+    <cellStyle name="Good" xfId="16" xr:uid="{B82D53AF-2BCF-492E-8522-9A568B797DF2}"/>
+    <cellStyle name="Heading" xfId="17" xr:uid="{641BFCEC-E0C5-4F0C-B2DE-66CABB0B272D}"/>
+    <cellStyle name="Heading 1" xfId="18" xr:uid="{24AFFD1F-0977-48EE-8AF5-F08008A0F6F8}"/>
+    <cellStyle name="Heading 2" xfId="19" xr:uid="{19DB0C42-5426-4AF6-8361-F66DD026DBD1}"/>
+    <cellStyle name="Hyperlink 2" xfId="20" xr:uid="{72FB6DB9-E658-45B3-ACF7-B73123003729}"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{2890167A-D2D9-433A-BA39-86C2C5914AB9}"/>
+    <cellStyle name="Lien hypertexte 3" xfId="5" xr:uid="{F83D2D5B-9F87-4191-A128-DC56A2401A74}"/>
+    <cellStyle name="Neutral" xfId="21" xr:uid="{1EDF0B12-BDC4-4301-B5CF-F097A5D6F676}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{20EA1DEE-5D90-40CA-8F2B-7E4F35D1CA63}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9926A76F-E45A-4EA8-B05F-718A1377A9BF}"/>
+    <cellStyle name="Note 2" xfId="22" xr:uid="{6F4281D1-F58A-4D7F-AA00-213543FF11EB}"/>
+    <cellStyle name="Result" xfId="23" xr:uid="{1C9C490D-6E49-458C-A7BC-9E2D5FFFB8F0}"/>
+    <cellStyle name="Standaard 2" xfId="6" xr:uid="{EFCF1DDD-4A82-468E-80B9-B4D9225C41C6}"/>
+    <cellStyle name="Standaard 3" xfId="7" xr:uid="{D15AD2AD-06D0-4753-9B3A-93602034D087}"/>
+    <cellStyle name="Status" xfId="24" xr:uid="{43DCB915-B05C-4358-A845-6C8D77328321}"/>
+    <cellStyle name="Text" xfId="25" xr:uid="{A0371508-3AEF-44AD-9CAD-12E36187D2A6}"/>
+    <cellStyle name="Warning" xfId="26" xr:uid="{41B29E51-0CCA-4852-AAEE-F3D3F44CD8D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1226,29 +1949,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614A540-6DA7-472B-AE29-D78101EAC3A5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1979,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="129.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="101.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +2005,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="72.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +2015,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +2025,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +2035,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +2047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="44.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +2059,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="44.25" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1348,7 +2071,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1358,7 +2081,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1368,15 +2091,15 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="58.5" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +2107,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="44.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1396,15 +2119,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="58.5" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +2135,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="44.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1422,7 +2145,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -1445,29 +2168,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F1ACA4-6A50-4650-A56C-926CA2276A88}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +2198,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +2210,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -1497,7 +2220,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +2230,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1519,7 +2242,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -1531,7 +2254,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1541,7 +2264,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -1553,7 +2276,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -1563,7 +2286,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -1573,15 +2296,15 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +2312,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -1601,15 +2324,15 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>55</v>
       </c>
@@ -1621,7 +2344,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
@@ -1631,67 +2354,67 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="7"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -1710,6 +2433,274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2005A-2F44-4363-9B97-D6B4F0A935C6}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" ht="180">
+      <c r="A4" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="195">
+      <c r="A11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="51"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" ht="75">
+      <c r="A16" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+    </row>
+    <row r="18" spans="1:4" ht="135">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="165">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="58"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="36"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="36"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="38"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="37"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF3DC88-0B77-440F-AB3C-E3CAC8D10FE4}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -1717,257 +2708,257 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="24"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1978,4 +2969,365 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA91D8A-4377-45E7-9FD5-F04E11EDFA1F}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="85.5">
+      <c r="A21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.5">
+      <c r="A22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" ht="18">
+      <c r="A24" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="28"/>
+    </row>
+    <row r="27" spans="1:4" ht="18">
+      <c r="A27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/BOs/Freyr.xlsx
+++ b/assets/BOs/Freyr.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191343AB-3230-4AD0-B51C-3026637A5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411A58E-8F7E-4889-AFE5-34A406283081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Early Eco ups - Husksuppe" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil5" sheetId="7" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil4" sheetId="6" r:id="rId5"/>
+    <sheet name="Feuil3" sheetId="8" r:id="rId1"/>
+    <sheet name="Early Eco ups - Husksuppe" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil5" sheetId="7" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId5"/>
+    <sheet name="Feuil4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
   <si>
     <t>Archaic</t>
   </si>
@@ -997,13 +998,258 @@
   </si>
   <si>
     <t>Standard Water - Léonce</t>
+  </si>
+  <si>
+    <t>Anti Krush/early relic build - By Husksuppe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gatherers + ox cart to gold, 1 gatherer to straggler tree, gather 10 wood then go to hunt. </t>
+  </si>
+  <si>
+    <t>If defensive hunt, Berserk herds them into the TC. If aggressive hunt, gatherer lures it to the TC.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3+initial wood gatherer to Food. Berserk places temple ASAP. </t>
+  </si>
+  <si>
+    <t>Autoqueue dwarves to put to gold.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 to Food. Queue a Hersir ASAP. </t>
+  </si>
+  <si>
+    <t>Hersir and Berserk should harass aggress Oracles from the Kronos player.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Place autoqueued gatherers onto food and dwarves onto gold. Once wood gatherer has gathered enough wood for another ox cart, place it onto food.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">8 / 0 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Advance with two dwarves.</t>
+  </si>
+  <si>
+    <t>Advance - x (2:42)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Take 4 food gatherers onto wood. Keep dwarves autoqueued.</t>
+  </si>
+  <si>
+    <t>Queue more Hersir from the Temple ASAP.</t>
+  </si>
+  <si>
+    <t>Classical (3:42)</t>
+  </si>
+  <si>
+    <t>4 / 4 / 5 / 2</t>
+  </si>
+  <si>
+    <t>Queue dwarves to gold until you survive the Krush.</t>
+  </si>
+  <si>
+    <t>Hersir rebuild Temple (if deconstructed) and build Great Hall. Raiding Cavalry are needed to fight Cheiroballista.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqS4eU0MAGU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,6 +1582,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1529,7 +1826,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1554,43 +1851,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1621,7 +1882,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="7" applyFont="1"/>
@@ -1633,6 +1894,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,6 +1929,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Accent" xfId="8" xr:uid="{71F600FC-EF8F-4AF1-BCF2-D23C0742A416}"/>
@@ -1946,6 +2265,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C539537-1B55-4B5D-8A65-A3644DA13BC0}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="55"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+    </row>
+    <row r="11" spans="1:4" s="55" customFormat="1" ht="15">
+      <c r="A11" s="55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="63"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="C18" s="64"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="65"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="66"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="66"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="68"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="67"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="68"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614A540-6DA7-472B-AE29-D78101EAC3A5}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -1956,20 +2490,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="58.5" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -2092,12 +2626,12 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4" ht="58.5" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -2120,12 +2654,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4" ht="58.5" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -2164,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F1ACA4-6A50-4650-A56C-926CA2276A88}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -2175,20 +2709,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -2297,12 +2831,12 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
@@ -2325,12 +2859,12 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
@@ -2361,16 +2895,16 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5"/>
@@ -2432,261 +2966,261 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2005A-2F44-4363-9B97-D6B4F0A935C6}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="180">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="195">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="31" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="51"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="45" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="75">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="135">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="165">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="47" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="33"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="36"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2700,7 +3234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF3DC88-0B77-440F-AB3C-E3CAC8D10FE4}">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -2711,20 +3245,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
@@ -2853,12 +3387,12 @@
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
@@ -2881,12 +3415,12 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
@@ -2971,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA91D8A-4377-45E7-9FD5-F04E11EDFA1F}">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -2982,342 +3516,342 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="18">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="85.5">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="28.5">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="18">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="31"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
